--- a/think_content_condition.xlsx
+++ b/think_content_condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b442eee93064521/Documents/TMS_EEG_project/RST_alpha/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chenxiao/Documents/project_codes/RST_Chinese_beta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{8AFA86A2-3F7D-42CF-895B-708646B56200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{194D892F-99A9-9C48-84B1-EBC982A9B271}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2120E-6986-004A-9B38-9AE54F65C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1320" windowWidth="23040" windowHeight="12060" xr2:uid="{C49F0F7B-2B2C-4320-996E-8220E34272B3}"/>
+    <workbookView xWindow="8200" yWindow="680" windowWidth="28300" windowHeight="13620" xr2:uid="{C49F0F7B-2B2C-4320-996E-8220E34272B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,40 +38,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>were about the past</t>
-  </si>
-  <si>
-    <t>were about the future</t>
-  </si>
-  <si>
-    <t>were about myself</t>
-  </si>
-  <si>
-    <t>were about others</t>
-  </si>
-  <si>
-    <t>were positive</t>
-  </si>
-  <si>
-    <t>were negative</t>
-  </si>
-  <si>
-    <t>were in the form of images</t>
-  </si>
-  <si>
-    <t>were in the form of words</t>
-  </si>
-  <si>
-    <t>made me feel happy</t>
-  </si>
-  <si>
-    <t>made me feel sad</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>是关于过去的事情</t>
+  </si>
+  <si>
+    <t>是关于将来的事情</t>
+  </si>
+  <si>
+    <t>是关于我自己的</t>
+  </si>
+  <si>
+    <t>是关于他人的</t>
+  </si>
+  <si>
+    <t>是正性的、积极的事件</t>
+  </si>
+  <si>
+    <t>是负性的、消极的事件</t>
+  </si>
+  <si>
+    <t>是以图像或意象的形式进行思维</t>
+  </si>
+  <si>
+    <t>是以内部言语的形式进行思维</t>
+  </si>
+  <si>
+    <t>让我感到开心</t>
+  </si>
+  <si>
+    <t>让我感到悲伤</t>
   </si>
 </sst>
 </file>
@@ -125,10 +125,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +447,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -461,15 +457,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -477,7 +473,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -485,7 +481,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -493,7 +489,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -501,7 +497,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -509,7 +505,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -517,7 +513,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -525,7 +521,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -533,7 +529,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -541,7 +537,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>10</v>
